--- a/biology/Zoologie/Coliidae/Coliidae.xlsx
+++ b/biology/Zoologie/Coliidae/Coliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des coliidés ou Coliidae est l'unique famille actuelle  de l'ordre des Coliiformes. Elle comprend six espèces de colious ou oiseaux-souris. C'est un ordre endémique de l'écozone afrotropicale (Afrique sub-saharienne),  vivant dans tous les milieux ouverts présentant des buissons ou des arbres, à l'exception de la forêt dense.
 Ce sont des oiseaux arboricoles de taille moyenne (de 29  à   38 cm) ressemblant à des passereaux. Ils ont un plumage gris terne ou brun, une très longue rectrice et une huppe érectile. Leurs doigts peuvent être tous dirigés vers l'avant.
@@ -515,13 +527,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Listes des sous-familles &amp; genres
-sous-famille des Coliinae
+          <t>Listes des sous-familles &amp; genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sous-famille des Coliinae
 Colius Brisson, 1760
 Sous-famille des Urocoliinae
-Urocolius Bonaparte, 1854
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+Urocolius Bonaparte, 1854</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coliidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Colius striatus – Coliou rayé
 Colius leucocephalus – Coliou à tête blanche
 Colius castanotus – Coliou à dos marron
